--- a/Suites/Pontuacoes/CONCACAF/01_CopaOuro_FaseEliminatorias.xlsx
+++ b/Suites/Pontuacoes/CONCACAF/01_CopaOuro_FaseEliminatorias.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convidado2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convidado1</t>
   </si>
   <si>
     <t xml:space="preserve">Costa Rica</t>
@@ -182,16 +176,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,76 +349,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="n">
         <v>-4</v>
       </c>
     </row>
